--- a/resources/experiment 1/metrics/MAPE/incidence/Ictus (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Ictus (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20641766215349.13</v>
+        <v>25034093703317.76</v>
       </c>
       <c r="C3" t="n">
-        <v>20641766215349.13</v>
+        <v>24103772653532.32</v>
       </c>
       <c r="D3" t="n">
-        <v>20641766215349.13</v>
+        <v>27063885084667.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19756082361170.04</v>
+        <v>27942160201598.19</v>
       </c>
       <c r="C4" t="n">
-        <v>19756082361170.04</v>
+        <v>35012859283096.58</v>
       </c>
       <c r="D4" t="n">
-        <v>19756082361170.04</v>
+        <v>34391411772179.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38310184696374.56</v>
+        <v>51825640668510.01</v>
       </c>
       <c r="C5" t="n">
-        <v>38310184696374.56</v>
+        <v>61019790202618.31</v>
       </c>
       <c r="D5" t="n">
-        <v>38310184696374.56</v>
+        <v>93612343722462.41</v>
       </c>
     </row>
   </sheetData>
